--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPMW_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPMW_Lineal_Estacionario_ARMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1.037248148680896</v>
+        <v>0.7686841038114228</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1.054448770626301</v>
+        <v>0.7704719163144619</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.9166687430696712</v>
+        <v>0.767009095795083</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>1.076995155575413</v>
+        <v>0.7760342464003689</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1.189440126594161</v>
+        <v>0.7836851223523358</v>
       </c>
     </row>
   </sheetData>
